--- a/サッカー勝敗予測_データマート.xlsx
+++ b/サッカー勝敗予測_データマート.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/koki_takinai_accenture_com/Documents/030_non_work/050_Hobby/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koki.takinai\football\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21732" windowHeight="11556" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21732" windowHeight="11556" tabRatio="876" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="テーブル定義書_過去対戦結果マート1" sheetId="1" r:id="rId1"/>
-    <sheet name="テーブル定義書_過去対戦結果マート2" sheetId="5" r:id="rId2"/>
-    <sheet name="テーブル定義書_チームマート" sheetId="2" r:id="rId3"/>
-    <sheet name="コード定義書_チームマート" sheetId="3" r:id="rId4"/>
-    <sheet name="ロジック" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="ToDo" sheetId="7" r:id="rId1"/>
+    <sheet name="テーブル定義書_過去対戦結果マート1" sheetId="1" r:id="rId2"/>
+    <sheet name="テーブル定義書_過去対戦結果マート2" sheetId="5" r:id="rId3"/>
+    <sheet name="テーブル定義書_チームマート" sheetId="2" r:id="rId4"/>
+    <sheet name="コード定義書_チームマート" sheetId="3" r:id="rId5"/>
+    <sheet name="ロジック" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">コード定義書_チームマート!$A$3:$G$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">コード定義書_チームマート!$A$3:$G$88</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="488">
   <si>
     <t>#</t>
     <phoneticPr fontId="2"/>
@@ -2019,6 +2020,31 @@
     <rPh sb="2" eb="4">
       <t>ヘンスウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ToDo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チーム名を英語に変換</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stadium_HA</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2076,7 +2102,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2086,6 +2112,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2122,7 +2154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2152,6 +2184,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2468,6 +2506,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.90625" customWidth="1"/>
+    <col min="2" max="2" width="45.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A22" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3071,12 +3289,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3221,7 +3439,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -3674,13 +3892,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4192,7 +4408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
@@ -4239,7 +4455,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" ref="A4:A35" si="0">ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4261,7 +4477,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4283,7 +4499,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4305,7 +4521,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4327,7 +4543,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4349,7 +4565,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4371,7 +4587,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -4393,7 +4609,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4415,7 +4631,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -4437,7 +4653,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4459,7 +4675,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -4481,7 +4697,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -4503,7 +4719,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4525,7 +4741,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -4547,7 +4763,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -4569,7 +4785,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -4591,7 +4807,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4613,7 +4829,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -4635,7 +4851,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -4657,7 +4873,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -4679,7 +4895,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4701,7 +4917,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -4723,7 +4939,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -4745,7 +4961,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -4767,7 +4983,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -4789,7 +5005,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -4811,7 +5027,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -4833,7 +5049,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -4855,7 +5071,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -4877,7 +5093,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -4899,7 +5115,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -4921,7 +5137,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -4943,7 +5159,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" ref="A36:A67" si="1">ROW()-3</f>
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -4965,7 +5181,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -4987,7 +5203,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -5009,7 +5225,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -5031,7 +5247,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -5053,7 +5269,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -5075,7 +5291,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -5097,7 +5313,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -5119,7 +5335,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -5141,7 +5357,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -5163,7 +5379,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -5185,7 +5401,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -5207,7 +5423,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -5229,7 +5445,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -5251,7 +5467,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -5273,7 +5489,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -5295,7 +5511,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -5317,7 +5533,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -5339,7 +5555,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -5361,7 +5577,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -5383,7 +5599,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -5405,7 +5621,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -5427,7 +5643,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B58" s="1"/>
@@ -5447,7 +5663,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B59" s="1"/>
@@ -5467,7 +5683,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B60" s="1"/>
@@ -5487,7 +5703,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B61" s="1"/>
@@ -5501,7 +5717,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B62" s="1"/>
@@ -5515,7 +5731,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B63" s="1"/>
@@ -5529,7 +5745,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B64" s="1"/>
@@ -5543,7 +5759,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B65" s="1"/>
@@ -5557,7 +5773,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B66" s="1"/>
@@ -5571,7 +5787,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B67" s="1"/>
@@ -5585,7 +5801,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" ref="A68:A87" si="2">ROW()-3</f>
         <v>65</v>
       </c>
       <c r="B68" s="1"/>
@@ -5599,7 +5815,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B69" s="1"/>
@@ -5613,7 +5829,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B70" s="1"/>
@@ -5627,7 +5843,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B71" s="1"/>
@@ -5641,7 +5857,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B72" s="1"/>
@@ -5655,7 +5871,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B73" s="1"/>
@@ -5669,7 +5885,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B74" s="1"/>
@@ -5683,7 +5899,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B75" s="1"/>
@@ -5697,7 +5913,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B76" s="1"/>
@@ -5711,7 +5927,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B77" s="1"/>
@@ -5725,7 +5941,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B78" s="1"/>
@@ -5739,7 +5955,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B79" s="1"/>
@@ -5753,7 +5969,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B80" s="1"/>
@@ -5767,7 +5983,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B81" s="1"/>
@@ -5781,7 +5997,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B82" s="1"/>
@@ -5795,7 +6011,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B83" s="1"/>
@@ -5809,7 +6025,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B84" s="1"/>
@@ -5823,7 +6039,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B85" s="1"/>
@@ -5837,7 +6053,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B86" s="1"/>
@@ -5851,7 +6067,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <f>ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B87" s="1"/>
@@ -5892,12 +6108,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5953,7 +6169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B248"/>
   <sheetViews>
